--- a/biology/Zoologie/Anisacate_fuegianum/Anisacate_fuegianum.xlsx
+++ b/biology/Zoologie/Anisacate_fuegianum/Anisacate_fuegianum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anisacate fuegianum est une espèce d'araignées aranéomorphes de la famille des Macrobunidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anisacate fuegianum est une espèce d'araignées aranéomorphes de la famille des Macrobunidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Argentine, au Chili et aux îles Malouines[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Argentine, au Chili et aux îles Malouines.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 4,6 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 4,6 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 25.0, 06/03/2024)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 25.0, 06/03/2024) :
 Anisacate fuegianum bransfieldi (Usher, 1983) des îles Malouines
 Anisacate fuegianum fuegianum (Simon, 1884) d'Argentine et du Chili</t>
         </is>
@@ -605,9 +623,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Amaurobius fuegianus par Simon en 1884. Elle est placée dans le genre Auximus par Simon en 1892[3] puis dans le genre Anisacate par Lehtinen en 1967[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Amaurobius fuegianus par Simon en 1884. Elle est placée dans le genre Auximus par Simon en 1892 puis dans le genre Anisacate par Lehtinen en 1967.
 </t>
         </is>
       </c>
@@ -636,7 +656,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, la Terre de Feu.
 </t>
@@ -667,7 +689,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Simon, 1884 : « Arachnides recueillis par la Mission du Cap Horn en 1882-1883. » Bulletin de la Société zoologique de France, vol. 9, p. 117-144 (texte intégral).
 Usher, 1983 : « Spiders from Beauchêne Island, Falkland Islands, South Atlantic. » Journal of Zoology, vol. 200, p. 571-582.</t>
